--- a/Game Design/MonsterAI.xlsx
+++ b/Game Design/MonsterAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +60,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -150,19 +162,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,7 +587,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,31 +609,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Game Design/MonsterAI.xlsx
+++ b/Game Design/MonsterAI.xlsx
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
